--- a/fetches.xlsx
+++ b/fetches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korkiak\OneDrive - Ilmatieteen laitos\Desktop\Sentinel\Qvidja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korkiak\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B750E91-672A-4AA8-A5E6-6BE4F4EF44F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DF6A8D-8FA6-4ED9-B13F-5EFD1AA1B18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{257A813D-B977-488D-8755-D30EB9C12552}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EAD728-F5A4-4997-AA12-69991AD7C485}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,7 +502,7 @@
         <v>190</v>
       </c>
       <c r="B9">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="C9">
         <v>195</v>
@@ -510,56 +510,23 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="B10">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="C10">
-        <v>213</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="B11">
-        <v>225</v>
+        <v>360</v>
       </c>
       <c r="C11">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>225</v>
-      </c>
-      <c r="B12">
-        <v>230</v>
-      </c>
-      <c r="C12">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>230</v>
-      </c>
-      <c r="B13">
-        <v>255</v>
-      </c>
-      <c r="C13">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>255</v>
-      </c>
-      <c r="B14">
-        <v>360</v>
-      </c>
-      <c r="C14">
         <v>0</v>
       </c>
     </row>
